--- a/data/trans_bre/P2405-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2405-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2405-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2405-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 0,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; -0,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; -0,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,21; 33,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,36%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; -0,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 0,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -51,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,35; 36,01</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,26%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 0,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; -0,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 0,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; -0,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; -0,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,84%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,57%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,18%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; -0,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; -0,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; -0,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,71; 9,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,07; -63,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,14; -51,74</t>
         </is>
       </c>
     </row>
